--- a/nessus-solution.xlsx
+++ b/nessus-solution.xlsx
@@ -5,24 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NK439ZY\Documents\GitHub\Nessus-translator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XX769YM\Desktop\nessus\Nessus-translator\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9740"/>
   </bookViews>
   <sheets>
     <sheet name="整理结果（高，严重）" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'整理结果（高，严重）'!$A$1:$B$305</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'整理结果（高，严重）'!$B$1:$B$305</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
   <si>
     <t>Solution</t>
   </si>
@@ -164,9 +164,6 @@
 Alternatively, apply the workaround referenced in the vendor advisory.</t>
   </si>
   <si>
-    <t>Apply the referenced patch.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1774,12 +1771,116 @@
       <t>版本进行更新</t>
     </r>
   </si>
+  <si>
+    <t>1、在ssh配置文件/etc/ssh/sshd_config中添加下面这行配置。
+Ciphersaes128-ctr,aes192-ctr,aes256-ctr,aes128-cbc,3des-cbc,blowfish-cbc,cast128-cbc,aes192-cbc,aes256-cbc,rijndael-cbc@lysator.liu.se
+2、重启ssh服务</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSH Weak Algorithms Supported</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apply the referenced patch.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1．注释listener.ora中的SECURE_REGISTER_LISTENER_PROD = (IPC)，并重启监听服务。
+lsnrctl stop listener
+lsnrctl start listener
+2．运行alter system set remote_listener='(ADDRESS=(PROTOCOL=TCP)(HOST=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>172.16.10.114</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)(PORT=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1521</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">))' scope=memory
+3．运行show parameter remote_listener 
+4．运行alter system register
+5．运行lsnrctl services listener (PDPS) 
+6．删掉listener.ora中SECURE_REGISTER_LISTENER_PROD = (IPC)的注释符号”#”，并重启监听服务。
+lsnrctl stop listener
+lsnrctl start listener
+7．运行alter system register
+8．运行lsnrctl services listener (PDPS) 
+9．查看监听日志cd %ORACLE_HOME%/network/log </t>
+    </r>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSH支持Arcfour(RC4)弱密码算法</t>
+  </si>
+  <si>
+    <t>请禁用一下RC4弱算法：
+arcfour
+arcfour128
+arcfour256</t>
+  </si>
+  <si>
+    <t>Apache Tomcat存在examples文件</t>
+  </si>
+  <si>
+    <t>如不需要使用，请考虑删除以下examples文件：
+/examples/servlets/index.html
+/examples/jsp/snp/snoop.jsp
+/examples/jsp/index.html</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWEET32: TLS 64位密码生日攻击(CVE-2016-2183)</t>
+  </si>
+  <si>
+    <t>禁用以下DES/3DES密码套件：
+DES-CBC3-SHA</t>
+  </si>
+  <si>
+    <t>Oracle Database Server 'TNS Listener'远程数据投毒漏洞(CVE-2012-1675)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1989,6 +2090,20 @@
       <name val="黑体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2684,1381 +2799,1419 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P306"/>
+  <dimension ref="A1:E306"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="76.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="62" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="9.125" style="4"/>
+    <col min="1" max="1" width="62" style="4" customWidth="1"/>
+    <col min="2" max="2" width="76.6328125" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9.08984375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" s="5" customFormat="1" ht="24" customHeight="1">
       <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+    </row>
+    <row r="4" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
+    </row>
+    <row r="5" spans="1:2" s="1" customFormat="1" ht="201.5">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="1" customFormat="1" ht="204.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+    </row>
+    <row r="6" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
+    </row>
+    <row r="7" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+    </row>
+    <row r="9" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
+      <c r="A9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
+    </row>
+    <row r="10" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
+      <c r="A10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
+    </row>
+    <row r="11" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
+      <c r="A11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
+    </row>
+    <row r="12" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
+      <c r="A12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
+    </row>
+    <row r="13" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
+      <c r="A13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
+    </row>
+    <row r="14" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
+      <c r="A14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
+    </row>
+    <row r="15" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
+      <c r="A15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
+    </row>
+    <row r="16" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
+      <c r="A16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+    </row>
+    <row r="17" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
+      <c r="A17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="s">
+    </row>
+    <row r="18" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
+      <c r="A18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="7" t="s">
+    </row>
+    <row r="19" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
+      <c r="A19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
+    </row>
+    <row r="20" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
+      <c r="A20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7" t="s">
+    </row>
+    <row r="21" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
+      <c r="A21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
+      <c r="A22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="7" t="s">
+    </row>
+    <row r="23" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
+      <c r="A23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="9" t="s">
+    </row>
+    <row r="24" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
+      <c r="A24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="9" t="s">
+    </row>
+    <row r="25" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
+      <c r="A25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="9" t="s">
+    </row>
+    <row r="26" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
+      <c r="A26" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="9" t="s">
+    </row>
+    <row r="27" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
+      <c r="A27" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="8" t="s">
+      <c r="B27" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
+      <c r="A28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="7" t="s">
+    </row>
+    <row r="29" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
+      <c r="A29" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="9" t="s">
+    </row>
+    <row r="30" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
+      <c r="A30" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="7" t="s">
+    </row>
+    <row r="31" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
+      <c r="A31" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="9" t="s">
+    </row>
+    <row r="32" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
+      <c r="A32" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="1" customFormat="1" ht="39" customHeight="1">
+      <c r="A33" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="9" t="s">
+    </row>
+    <row r="34" spans="1:5" s="1" customFormat="1" ht="39" customHeight="1">
+      <c r="A34" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="7" t="s">
+    </row>
+    <row r="35" spans="1:5" s="1" customFormat="1" ht="39" customHeight="1">
+      <c r="A35" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="9" t="s">
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="1:5" s="1" customFormat="1" ht="39" customHeight="1">
+      <c r="A36" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36"/>
-      <c r="B36"/>
-    </row>
-    <row r="37" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37"/>
-      <c r="B37"/>
-    </row>
-    <row r="38" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38"/>
-      <c r="B38"/>
-    </row>
-    <row r="39" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39"/>
-      <c r="B39"/>
-    </row>
-    <row r="40" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40"/>
-      <c r="B40"/>
-    </row>
-    <row r="41" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="1:5" s="1" customFormat="1" ht="39" customHeight="1">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" spans="1:5" s="1" customFormat="1" ht="39" customHeight="1">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="1:5" s="1" customFormat="1" ht="39" customHeight="1">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="1:5" s="1" customFormat="1" ht="39" customHeight="1">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+    </row>
+    <row r="41" spans="1:5" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A41"/>
       <c r="B41"/>
     </row>
-    <row r="42" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A42"/>
       <c r="B42"/>
     </row>
-    <row r="43" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A43"/>
       <c r="B43"/>
     </row>
-    <row r="44" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A44"/>
       <c r="B44"/>
     </row>
-    <row r="45" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A45"/>
       <c r="B45"/>
     </row>
-    <row r="46" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A46"/>
       <c r="B46"/>
     </row>
-    <row r="47" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A47"/>
       <c r="B47"/>
     </row>
-    <row r="48" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A48"/>
       <c r="B48"/>
     </row>
-    <row r="49" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A49"/>
       <c r="B49"/>
     </row>
-    <row r="50" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A50"/>
       <c r="B50"/>
     </row>
-    <row r="51" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A51"/>
       <c r="B51"/>
     </row>
-    <row r="52" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A52"/>
       <c r="B52"/>
     </row>
-    <row r="53" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A53"/>
       <c r="B53"/>
     </row>
-    <row r="54" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A54"/>
       <c r="B54"/>
     </row>
-    <row r="55" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A55"/>
       <c r="B55"/>
     </row>
-    <row r="56" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A56"/>
       <c r="B56"/>
     </row>
-    <row r="57" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A57"/>
       <c r="B57"/>
     </row>
-    <row r="58" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A58"/>
       <c r="B58"/>
     </row>
-    <row r="59" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A59"/>
       <c r="B59"/>
     </row>
-    <row r="60" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A60"/>
       <c r="B60"/>
     </row>
-    <row r="61" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A61"/>
       <c r="B61"/>
     </row>
-    <row r="62" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A62"/>
       <c r="B62"/>
     </row>
-    <row r="63" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A63"/>
       <c r="B63"/>
     </row>
-    <row r="64" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A64"/>
       <c r="B64"/>
     </row>
-    <row r="65" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A65"/>
       <c r="B65"/>
     </row>
-    <row r="66" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A66"/>
       <c r="B66"/>
     </row>
-    <row r="67" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A67"/>
       <c r="B67"/>
     </row>
-    <row r="68" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A68"/>
       <c r="B68"/>
     </row>
-    <row r="69" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A69"/>
       <c r="B69"/>
     </row>
-    <row r="70" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A70"/>
       <c r="B70"/>
     </row>
-    <row r="71" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A71"/>
       <c r="B71"/>
     </row>
-    <row r="72" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A72"/>
       <c r="B72"/>
     </row>
-    <row r="73" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A73"/>
       <c r="B73"/>
     </row>
-    <row r="74" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A74"/>
       <c r="B74"/>
     </row>
-    <row r="75" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A75"/>
       <c r="B75"/>
     </row>
-    <row r="76" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A76"/>
       <c r="B76"/>
     </row>
-    <row r="77" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A77"/>
       <c r="B77"/>
     </row>
-    <row r="78" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A78"/>
       <c r="B78"/>
     </row>
-    <row r="79" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A79"/>
       <c r="B79"/>
     </row>
-    <row r="80" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A80"/>
       <c r="B80"/>
     </row>
-    <row r="81" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A81"/>
       <c r="B81"/>
     </row>
-    <row r="82" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A82"/>
       <c r="B82"/>
     </row>
-    <row r="83" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A83"/>
       <c r="B83"/>
     </row>
-    <row r="84" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A84"/>
       <c r="B84"/>
     </row>
-    <row r="85" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A85"/>
       <c r="B85"/>
     </row>
-    <row r="86" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A86"/>
       <c r="B86"/>
     </row>
-    <row r="87" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A87"/>
       <c r="B87"/>
     </row>
-    <row r="88" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A88"/>
       <c r="B88"/>
     </row>
-    <row r="89" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A89"/>
       <c r="B89"/>
     </row>
-    <row r="90" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A90"/>
       <c r="B90"/>
     </row>
-    <row r="91" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A91"/>
       <c r="B91"/>
     </row>
-    <row r="92" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A92"/>
       <c r="B92"/>
     </row>
-    <row r="93" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A93"/>
       <c r="B93"/>
     </row>
-    <row r="94" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A94"/>
       <c r="B94"/>
     </row>
-    <row r="95" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A95"/>
       <c r="B95"/>
     </row>
-    <row r="96" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A96"/>
       <c r="B96"/>
     </row>
-    <row r="97" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A97"/>
       <c r="B97"/>
     </row>
-    <row r="98" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A98"/>
       <c r="B98"/>
     </row>
-    <row r="99" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A99"/>
       <c r="B99"/>
     </row>
-    <row r="100" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A100"/>
       <c r="B100"/>
     </row>
-    <row r="101" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A101"/>
       <c r="B101"/>
     </row>
-    <row r="102" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A102"/>
       <c r="B102"/>
     </row>
-    <row r="103" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A103"/>
       <c r="B103"/>
     </row>
-    <row r="104" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A104"/>
       <c r="B104"/>
     </row>
-    <row r="105" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A105"/>
       <c r="B105"/>
     </row>
-    <row r="106" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A106"/>
       <c r="B106"/>
     </row>
-    <row r="107" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A107"/>
       <c r="B107"/>
     </row>
-    <row r="108" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A108"/>
       <c r="B108"/>
     </row>
-    <row r="109" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A109"/>
       <c r="B109"/>
     </row>
-    <row r="110" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A110"/>
       <c r="B110"/>
     </row>
-    <row r="111" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A111"/>
       <c r="B111"/>
     </row>
-    <row r="112" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A112"/>
       <c r="B112"/>
     </row>
-    <row r="113" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A113"/>
       <c r="B113"/>
     </row>
-    <row r="114" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A114"/>
       <c r="B114"/>
     </row>
-    <row r="115" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A115"/>
       <c r="B115"/>
     </row>
-    <row r="116" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A116"/>
       <c r="B116"/>
     </row>
-    <row r="117" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A117"/>
       <c r="B117"/>
     </row>
-    <row r="118" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A118"/>
       <c r="B118"/>
     </row>
-    <row r="119" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A119"/>
       <c r="B119"/>
     </row>
-    <row r="120" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A120"/>
       <c r="B120"/>
     </row>
-    <row r="121" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A121"/>
       <c r="B121"/>
     </row>
-    <row r="122" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A122"/>
       <c r="B122"/>
     </row>
-    <row r="123" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A123"/>
       <c r="B123"/>
     </row>
-    <row r="124" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A124"/>
       <c r="B124"/>
     </row>
-    <row r="125" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A125"/>
       <c r="B125"/>
     </row>
-    <row r="126" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A126"/>
       <c r="B126"/>
     </row>
-    <row r="127" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A127"/>
       <c r="B127"/>
     </row>
-    <row r="128" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A128"/>
       <c r="B128"/>
     </row>
-    <row r="129" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A129"/>
       <c r="B129"/>
     </row>
-    <row r="130" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A130"/>
       <c r="B130"/>
     </row>
-    <row r="131" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A131"/>
       <c r="B131"/>
     </row>
-    <row r="132" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A132"/>
       <c r="B132"/>
     </row>
-    <row r="133" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A133"/>
       <c r="B133"/>
     </row>
-    <row r="134" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A134"/>
       <c r="B134"/>
     </row>
-    <row r="135" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A135"/>
       <c r="B135"/>
     </row>
-    <row r="136" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A136"/>
       <c r="B136"/>
     </row>
-    <row r="137" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A137"/>
       <c r="B137"/>
     </row>
-    <row r="138" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A138"/>
       <c r="B138"/>
     </row>
-    <row r="139" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A139"/>
       <c r="B139"/>
     </row>
-    <row r="140" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A140"/>
       <c r="B140"/>
     </row>
-    <row r="141" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A141"/>
       <c r="B141"/>
     </row>
-    <row r="142" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A142"/>
       <c r="B142"/>
     </row>
-    <row r="143" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A143"/>
       <c r="B143"/>
     </row>
-    <row r="144" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A144"/>
       <c r="B144"/>
     </row>
-    <row r="145" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A145"/>
       <c r="B145"/>
     </row>
-    <row r="146" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A146"/>
       <c r="B146"/>
     </row>
-    <row r="147" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A147"/>
       <c r="B147"/>
     </row>
-    <row r="148" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A148"/>
       <c r="B148"/>
     </row>
-    <row r="149" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A149"/>
       <c r="B149"/>
     </row>
-    <row r="150" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A150"/>
       <c r="B150"/>
     </row>
-    <row r="151" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A151"/>
       <c r="B151"/>
     </row>
-    <row r="152" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A152"/>
       <c r="B152"/>
     </row>
-    <row r="153" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A153"/>
       <c r="B153"/>
     </row>
-    <row r="154" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A154"/>
       <c r="B154"/>
     </row>
-    <row r="155" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A155"/>
       <c r="B155"/>
     </row>
-    <row r="156" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A156"/>
       <c r="B156"/>
     </row>
-    <row r="157" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A157"/>
       <c r="B157"/>
     </row>
-    <row r="158" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A158"/>
       <c r="B158"/>
     </row>
-    <row r="159" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A159"/>
       <c r="B159"/>
     </row>
-    <row r="160" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A160"/>
       <c r="B160"/>
     </row>
-    <row r="161" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A161"/>
       <c r="B161"/>
     </row>
-    <row r="162" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A162"/>
       <c r="B162"/>
     </row>
-    <row r="163" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A163"/>
       <c r="B163"/>
     </row>
-    <row r="164" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A164"/>
       <c r="B164"/>
     </row>
-    <row r="165" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A165"/>
       <c r="B165"/>
     </row>
-    <row r="166" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A166"/>
       <c r="B166"/>
     </row>
-    <row r="167" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A167"/>
       <c r="B167"/>
     </row>
-    <row r="168" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A168"/>
       <c r="B168"/>
     </row>
-    <row r="169" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A169"/>
       <c r="B169"/>
     </row>
-    <row r="170" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A170"/>
       <c r="B170"/>
     </row>
-    <row r="171" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A171"/>
       <c r="B171"/>
     </row>
-    <row r="172" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A172"/>
       <c r="B172"/>
     </row>
-    <row r="173" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A173"/>
       <c r="B173"/>
     </row>
-    <row r="174" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A174"/>
       <c r="B174"/>
     </row>
-    <row r="175" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A175"/>
       <c r="B175"/>
     </row>
-    <row r="176" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A176"/>
       <c r="B176"/>
     </row>
-    <row r="177" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A177"/>
       <c r="B177"/>
     </row>
-    <row r="178" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A178"/>
       <c r="B178"/>
     </row>
-    <row r="179" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A179"/>
       <c r="B179"/>
     </row>
-    <row r="180" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A180"/>
       <c r="B180"/>
     </row>
-    <row r="181" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A181"/>
       <c r="B181"/>
     </row>
-    <row r="182" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A182"/>
       <c r="B182"/>
     </row>
-    <row r="183" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A183"/>
       <c r="B183"/>
     </row>
-    <row r="184" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A184"/>
       <c r="B184"/>
     </row>
-    <row r="185" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A185"/>
       <c r="B185"/>
     </row>
-    <row r="186" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A186"/>
       <c r="B186"/>
     </row>
-    <row r="187" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A187"/>
       <c r="B187"/>
     </row>
-    <row r="188" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A188"/>
       <c r="B188"/>
     </row>
-    <row r="189" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A189"/>
       <c r="B189"/>
     </row>
-    <row r="190" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A190"/>
       <c r="B190"/>
     </row>
-    <row r="191" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A191"/>
       <c r="B191"/>
     </row>
-    <row r="192" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A192"/>
       <c r="B192"/>
     </row>
-    <row r="193" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A193"/>
       <c r="B193"/>
     </row>
-    <row r="194" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A194"/>
       <c r="B194"/>
     </row>
-    <row r="195" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A195"/>
       <c r="B195"/>
     </row>
-    <row r="196" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A196"/>
       <c r="B196"/>
     </row>
-    <row r="197" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A197"/>
       <c r="B197"/>
     </row>
-    <row r="198" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A198"/>
       <c r="B198"/>
     </row>
-    <row r="199" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A199"/>
       <c r="B199"/>
     </row>
-    <row r="200" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A200"/>
       <c r="B200"/>
     </row>
-    <row r="201" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A201"/>
       <c r="B201"/>
     </row>
-    <row r="202" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A202"/>
       <c r="B202"/>
     </row>
-    <row r="203" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A203"/>
       <c r="B203"/>
     </row>
-    <row r="204" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A204"/>
       <c r="B204"/>
     </row>
-    <row r="205" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A205"/>
       <c r="B205"/>
     </row>
-    <row r="206" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A206"/>
       <c r="B206"/>
     </row>
-    <row r="207" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A207"/>
       <c r="B207"/>
     </row>
-    <row r="208" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A208"/>
       <c r="B208"/>
     </row>
-    <row r="209" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A209"/>
       <c r="B209"/>
     </row>
-    <row r="210" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A210"/>
       <c r="B210"/>
     </row>
-    <row r="211" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A211"/>
       <c r="B211"/>
     </row>
-    <row r="212" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A212"/>
       <c r="B212"/>
     </row>
-    <row r="213" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A213"/>
       <c r="B213"/>
     </row>
-    <row r="214" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A214"/>
       <c r="B214"/>
     </row>
-    <row r="215" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A215"/>
       <c r="B215"/>
     </row>
-    <row r="216" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A216"/>
       <c r="B216"/>
     </row>
-    <row r="217" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A217"/>
       <c r="B217"/>
     </row>
-    <row r="218" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A218"/>
       <c r="B218"/>
     </row>
-    <row r="219" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A219"/>
       <c r="B219"/>
     </row>
-    <row r="220" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A220"/>
       <c r="B220"/>
     </row>
-    <row r="221" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A221"/>
       <c r="B221"/>
     </row>
-    <row r="222" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A222"/>
       <c r="B222"/>
     </row>
-    <row r="223" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A223"/>
       <c r="B223"/>
     </row>
-    <row r="224" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A224"/>
       <c r="B224"/>
     </row>
-    <row r="225" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A225"/>
       <c r="B225"/>
     </row>
-    <row r="226" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A226"/>
       <c r="B226"/>
     </row>
-    <row r="227" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A227"/>
       <c r="B227"/>
     </row>
-    <row r="228" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A228"/>
       <c r="B228"/>
     </row>
-    <row r="229" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A229"/>
       <c r="B229"/>
     </row>
-    <row r="230" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A230"/>
       <c r="B230"/>
     </row>
-    <row r="231" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A231"/>
       <c r="B231"/>
     </row>
-    <row r="232" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A232"/>
       <c r="B232"/>
     </row>
-    <row r="233" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A233"/>
       <c r="B233"/>
     </row>
-    <row r="234" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A234"/>
       <c r="B234"/>
     </row>
-    <row r="235" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A235"/>
       <c r="B235"/>
     </row>
-    <row r="236" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A236"/>
       <c r="B236"/>
     </row>
-    <row r="237" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A237"/>
       <c r="B237"/>
     </row>
-    <row r="238" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A238"/>
       <c r="B238"/>
     </row>
-    <row r="239" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A239"/>
       <c r="B239"/>
     </row>
-    <row r="240" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A240"/>
       <c r="B240"/>
     </row>
-    <row r="241" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A241"/>
       <c r="B241"/>
     </row>
-    <row r="242" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A242"/>
       <c r="B242"/>
     </row>
-    <row r="243" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A243"/>
       <c r="B243"/>
     </row>
-    <row r="244" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A244"/>
       <c r="B244"/>
     </row>
-    <row r="245" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A245"/>
       <c r="B245"/>
     </row>
-    <row r="246" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A246"/>
       <c r="B246"/>
     </row>
-    <row r="247" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A247"/>
       <c r="B247"/>
     </row>
-    <row r="248" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A248"/>
       <c r="B248"/>
     </row>
-    <row r="249" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A249"/>
       <c r="B249"/>
     </row>
-    <row r="250" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A250"/>
       <c r="B250"/>
     </row>
-    <row r="251" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A251"/>
       <c r="B251"/>
     </row>
-    <row r="252" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A252"/>
       <c r="B252"/>
     </row>
-    <row r="253" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A253"/>
       <c r="B253"/>
     </row>
-    <row r="254" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A254"/>
       <c r="B254"/>
     </row>
-    <row r="255" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A255"/>
       <c r="B255"/>
     </row>
-    <row r="256" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A256"/>
       <c r="B256"/>
     </row>
-    <row r="257" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A257"/>
       <c r="B257"/>
     </row>
-    <row r="258" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A258"/>
       <c r="B258"/>
     </row>
-    <row r="259" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A259"/>
       <c r="B259"/>
     </row>
-    <row r="260" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A260"/>
       <c r="B260"/>
     </row>
-    <row r="261" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A261"/>
       <c r="B261"/>
     </row>
-    <row r="262" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A262"/>
       <c r="B262"/>
     </row>
-    <row r="263" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A263"/>
       <c r="B263"/>
     </row>
-    <row r="264" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A264"/>
       <c r="B264"/>
     </row>
-    <row r="265" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A265"/>
       <c r="B265"/>
     </row>
-    <row r="266" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A266"/>
       <c r="B266"/>
     </row>
-    <row r="267" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A267"/>
       <c r="B267"/>
     </row>
-    <row r="268" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A268"/>
       <c r="B268"/>
     </row>
-    <row r="269" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A269"/>
       <c r="B269"/>
     </row>
-    <row r="270" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A270"/>
       <c r="B270"/>
     </row>
-    <row r="271" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A271"/>
       <c r="B271"/>
     </row>
-    <row r="272" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A272"/>
       <c r="B272"/>
     </row>
-    <row r="273" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A273"/>
       <c r="B273"/>
     </row>
-    <row r="274" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A274"/>
       <c r="B274"/>
     </row>
-    <row r="275" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A275"/>
       <c r="B275"/>
     </row>
-    <row r="276" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A276"/>
       <c r="B276"/>
     </row>
-    <row r="277" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A277"/>
       <c r="B277"/>
     </row>
-    <row r="278" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A278"/>
       <c r="B278"/>
     </row>
-    <row r="279" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A279"/>
       <c r="B279"/>
     </row>
-    <row r="280" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A280"/>
       <c r="B280"/>
     </row>
-    <row r="281" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A281"/>
       <c r="B281"/>
     </row>
-    <row r="282" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A282"/>
       <c r="B282"/>
     </row>
-    <row r="283" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A283"/>
       <c r="B283"/>
     </row>
-    <row r="284" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A284"/>
       <c r="B284"/>
     </row>
-    <row r="285" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A285"/>
       <c r="B285"/>
     </row>
-    <row r="286" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A286"/>
       <c r="B286"/>
     </row>
-    <row r="287" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A287"/>
       <c r="B287"/>
     </row>
-    <row r="288" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A288"/>
       <c r="B288"/>
     </row>
-    <row r="289" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A289"/>
       <c r="B289"/>
     </row>
-    <row r="290" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A290"/>
       <c r="B290"/>
     </row>
-    <row r="291" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A291"/>
       <c r="B291"/>
     </row>
-    <row r="292" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A292"/>
       <c r="B292"/>
     </row>
-    <row r="293" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A293"/>
       <c r="B293"/>
     </row>
-    <row r="294" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A294"/>
       <c r="B294"/>
     </row>
-    <row r="295" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A295"/>
       <c r="B295"/>
     </row>
-    <row r="296" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A296"/>
       <c r="B296"/>
     </row>
-    <row r="297" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A297"/>
       <c r="B297"/>
     </row>
-    <row r="298" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A298"/>
       <c r="B298"/>
     </row>
-    <row r="299" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A299"/>
       <c r="B299"/>
     </row>
-    <row r="300" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A300"/>
       <c r="B300"/>
     </row>
-    <row r="301" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A301"/>
       <c r="B301"/>
     </row>
-    <row r="302" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A302"/>
       <c r="B302"/>
     </row>
-    <row r="303" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A303"/>
       <c r="B303"/>
     </row>
-    <row r="304" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A304"/>
       <c r="B304"/>
     </row>
-    <row r="305" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:2" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A305"/>
       <c r="B305"/>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B306" s="2"/>
+    <row r="306" spans="1:2">
+      <c r="A306" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
